--- a/Assets/Data/Excel/excel_seed_info.xlsx
+++ b/Assets/Data/Excel/excel_seed_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14685"/>
+    <workbookView windowWidth="23430" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="SeedInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,12 @@
     <t>growup_totleloop</t>
   </si>
   <si>
+    <t>get_items</t>
+  </si>
+  <si>
+    <t>get_ingredient</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -58,10 +64,19 @@
     <t>总共的成长周期</t>
   </si>
   <si>
+    <t>收获的道具</t>
+  </si>
+  <si>
+    <t>收获的食材</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>tile_courtyard_wheat_</t>
+  </si>
+  <si>
+    <t>8_100</t>
   </si>
   <si>
     <t>小麦种子</t>
@@ -1032,31 +1047,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="3" max="3" width="78.25" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="49.25" customWidth="1"/>
-    <col min="5" max="6" width="42.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="23.25" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="16.875" customWidth="1"/>
-    <col min="16" max="16" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
+    <col min="7" max="8" width="42.875" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="25.875" customWidth="1"/>
+    <col min="13" max="13" width="23.25" customWidth="1"/>
+    <col min="14" max="14" width="24.875" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="18" max="18" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,48 +1092,66 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1124,16 +1159,20 @@
         <v>9900001</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1"/>
@@ -1157,7 +1196,7 @@
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:G88">
+  <sortState ref="A4:I88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/Excel/excel_seed_info.xlsx
+++ b/Assets/Data/Excel/excel_seed_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23430" windowHeight="10290"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="SeedInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>growup_oneloopday</t>
   </si>
   <si>
+    <t>shake_state</t>
+  </si>
+  <si>
     <t>growup_totleloop</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>每个周期的天数</t>
   </si>
   <si>
+    <t>摇晃状态（0静止 1摇晃）</t>
+  </si>
+  <si>
     <t>总共的成长周期</t>
   </si>
   <si>
@@ -76,10 +82,55 @@
     <t>tile_courtyard_wheat_</t>
   </si>
   <si>
+    <t>1,1,1,1,1</t>
+  </si>
+  <si>
     <t>8_100</t>
   </si>
   <si>
     <t>小麦种子</t>
+  </si>
+  <si>
+    <t>tile_courtyard_potato_</t>
+  </si>
+  <si>
+    <t>5_100</t>
+  </si>
+  <si>
+    <t>土豆种子</t>
+  </si>
+  <si>
+    <t>tile_courtyard_corn_</t>
+  </si>
+  <si>
+    <t>5_200</t>
+  </si>
+  <si>
+    <t>玉米种子</t>
+  </si>
+  <si>
+    <t>tile_courtyard_grapes_</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>6_100</t>
+  </si>
+  <si>
+    <t>葡萄种子</t>
+  </si>
+  <si>
+    <t>tile_courtyard_watermelon_</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>6_200</t>
+  </si>
+  <si>
+    <t>西瓜种子</t>
   </si>
 </sst>
 </file>
@@ -1047,33 +1098,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="47.5" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="49.25" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
-    <col min="6" max="6" width="38.5" customWidth="1"/>
-    <col min="7" max="8" width="42.875" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="25.875" customWidth="1"/>
-    <col min="13" max="13" width="23.25" customWidth="1"/>
-    <col min="14" max="14" width="24.875" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="18" max="18" width="13.125" customWidth="1"/>
+    <col min="4" max="5" width="31.75" customWidth="1"/>
+    <col min="6" max="6" width="34.375" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="8" max="9" width="42.875" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="25.875" customWidth="1"/>
+    <col min="14" max="14" width="23.25" customWidth="1"/>
+    <col min="15" max="15" width="24.875" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="13.75" customWidth="1"/>
+    <col min="18" max="18" width="16.875" customWidth="1"/>
+    <col min="19" max="19" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,60 +1149,69 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1159,20 +1219,126 @@
         <v>9900001</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5">
+        <v>9901001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6">
+        <v>9901002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>2001</v>
+      </c>
+      <c r="B7">
+        <v>9902001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2002</v>
+      </c>
+      <c r="B8">
+        <v>9902002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1"/>
@@ -1196,7 +1362,7 @@
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:I88">
+  <sortState ref="A4:J88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/Excel/excel_seed_info.xlsx
+++ b/Assets/Data/Excel/excel_seed_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -85,7 +85,7 @@
     <t>1,1,1,1,1</t>
   </si>
   <si>
-    <t>8_100</t>
+    <t>8_150</t>
   </si>
   <si>
     <t>小麦种子</t>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>西瓜种子</t>
+  </si>
+  <si>
+    <t>tile_courtyard_element_</t>
+  </si>
+  <si>
+    <t>99900002_1_1</t>
+  </si>
+  <si>
+    <t>五行花种子</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1110,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1222,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -1248,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1274,7 +1283,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1300,7 +1309,7 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -1326,7 +1335,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -1339,6 +1348,32 @@
       </c>
       <c r="I8" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>10001</v>
+      </c>
+      <c r="B9">
+        <v>9910001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1"/>
